--- a/medicine/Psychotrope/La_Grihète/La_Grihète.xlsx
+++ b/medicine/Psychotrope/La_Grihète/La_Grihète.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Grih%C3%A8te</t>
+          <t>La_Grihète</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Grihète est une marque de bière de la Brasserie Artisanale du Sud située à Nyons, dans le département de la Drôme.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Grih%C3%A8te</t>
+          <t>La_Grihète</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Les bières</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La Grihète propose une large gamme de bières  : 
 Blonde
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Grih%C3%A8te</t>
+          <t>La_Grihète</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondée en 2001 dans le sud-est à Nyons, la brasserie est composée d’une équipe de 18 salariés. Brasserie Artisanale du Sud avec sa marque Grihète est spécialisée dans l’élaboration et la fabrication de bières bio naturelles non filtrées, sans additifs ni colorants et non pasteurisées.
 </t>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Grih%C3%A8te</t>
+          <t>La_Grihète</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Site officiel
  Portail de la bière   Portail de la Drôme                    </t>
